--- a/XMU_RSS/厦门大学RSS订阅.xlsx
+++ b/XMU_RSS/厦门大学RSS订阅.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DropBox\Dropbox\文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\XMU_related\XMU_RSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>名称</t>
   </si>
@@ -236,6 +236,27 @@
 校区：{%4}&lt;br&gt;
 地点：{%5}&lt;br&gt;
 主讲人：{%6}&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>厦门大学信息门户</t>
+  </si>
+  <si>
+    <t>https://feed43.com/0380843544527103.xml</t>
+  </si>
+  <si>
+    <t>https://feed43.com/feed.html?name=0380843544527103</t>
+  </si>
+  <si>
+    <t>http://i.xmu.edu.cn/</t>
+  </si>
+  <si>
+    <t>公告信息 | 信息化建设</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;{*}
+&lt;!-- 此行代码不要格式化，因为格式化后，会影响rss.js 方法showRssContent的代码运行。--&gt;{*}
+&lt;span class="rss-time"&gt; &amp;nbsp;&amp;nbsp;{%}&lt;/span&gt;&lt;a href="http://i.xmu.edu.cn/#" class="rss-btn-close" onclick="return showRssContent(this);"&gt;&lt;img src="http://i.xmu.edu.cn/images/s.gif" alt="" title="查看详细信息"/&gt;&lt;/a&gt;&lt;a title='{%}' class="rss-title" target="_blank" onclick="return markAsRead('{%}',this);" href="{%}"&gt;{%}&lt;/a&gt;&lt;div class="rss-content" style="display:none;" &gt;&lt;/div&gt;&lt;textarea style="display:none;"&gt;{%}&lt;/textarea&gt;&lt;textarea style="display:none;"&gt;&lt;/textarea&gt;{*}
+&lt;/li&gt;</t>
   </si>
 </sst>
 </file>
@@ -610,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +673,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -672,7 +693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -695,7 +716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -715,7 +736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -735,7 +756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -755,7 +776,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -775,7 +796,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -795,7 +816,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -815,7 +836,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -836,6 +857,26 @@
       </c>
       <c r="H10" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
